--- a/数据整理/stocks/A股/上证主板/600348-华阳股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600348-华阳股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2113,4 +2114,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600348-华阳股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600348-华阳股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2122,7 +2123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2133,17 +2134,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2153,14 +2174,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.81</v>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2607</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2169,13 +2212,575 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2504</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0697</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8695</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3297</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001254</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>14</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.79</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600348-华阳股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600348-华阳股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2711,7 +2712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2722,17 +2723,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2742,14 +2763,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.98</v>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3566</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2758,14 +2801,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.81</v>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1541</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2774,13 +2839,1617 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7695</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7330</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6080</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4843</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3160</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2473</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2414</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>970041</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>970042</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>62.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>970073</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>970074</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>14</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.79</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600348-华阳股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600348-华阳股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4364,7 +4365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4375,17 +4376,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4395,14 +4416,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>42</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.92</v>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1450</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4411,14 +4454,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.98</v>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6320</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -4427,14 +4492,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.81</v>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9393</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -4443,13 +4530,1443 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>59.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9280</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9128</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8585</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4094</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013275</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3563</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014187</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013596</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014188</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>60.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>65.11</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012673</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>64.34</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>25.88</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012674</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.220000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.79</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600348-华阳股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600348-华阳股份.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="D2" t="n">
-        <v>9.220000000000001</v>
+        <v>17.02</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
-        <v>6.92</v>
+        <v>9.220000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>4.98</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>8.81</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.79</v>
       </c>
     </row>
@@ -566,6 +583,3248 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>140.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0031</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3847</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1067</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0359</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0130</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8665</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8224</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5559</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4707</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010981</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4331</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4264</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013275</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4057</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3610</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3270</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2469</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2224</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010982</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1843</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1565</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1453</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1335</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015071</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鑫元专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>74.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015566</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009965</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>宝盈祥琪混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013596</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>62.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014768</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>景顺华城稳健6月持有混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014767</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>景顺华城稳健6月持有混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015159</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>560100</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>64.59</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012673</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>015072</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鑫元专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>74.01</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005949</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004937</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中航混改精选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>61.34</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>016347</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）E</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>62.08</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合发起A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009966</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>宝盈祥琪混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004936</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中航混改精选混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012674</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合发起C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>015526</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>016814</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2065,7 +5324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3717,7 +6976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4305,7 +7564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5387,7 +8646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600348-华阳股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600348-华阳股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>17.02</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="D3" t="n">
-        <v>9.220000000000001</v>
+        <v>17.02</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>6.92</v>
+        <v>9.220000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D5" t="n">
-        <v>4.98</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>8.81</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>14</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.79</v>
       </c>
     </row>
@@ -583,6 +600,974 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0756</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012526</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发盛锦混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9144</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8060</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7100</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013275</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5429</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3524</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>39.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3305</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009965</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈祥琪混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>43.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012527</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发盛锦混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014768</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺华城稳健6月持有混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>39.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014767</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺华城稳健6月持有混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>016814</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009966</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>宝盈祥琪混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>43.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3824,7 +4809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5324,7 +6309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6976,7 +7961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7564,7 +8549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8646,7 +9631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
